--- a/assets/gross_sales.xlsx
+++ b/assets/gross_sales.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cogentholdings-my.sharepoint.com/personal/john_tan_sh-cogent_com_sg/Documents/Documents/Laiye Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{17E8881B-969A-40C0-91E1-DC8823F7C12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F80CD61F-5598-43A9-9A05-D44D9B91783A}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{17E8881B-969A-40C0-91E1-DC8823F7C12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{531ECA92-371D-4AAF-82C3-09E3450E3E20}"/>
   <bookViews>
-    <workbookView xWindow="21555" yWindow="2115" windowWidth="15360" windowHeight="10920" activeTab="2" xr2:uid="{CD4BCF1E-76BF-4331-A619-601C2A286595}"/>
+    <workbookView xWindow="22410" yWindow="2220" windowWidth="15360" windowHeight="10920" firstSheet="1" activeTab="2" xr2:uid="{CD4BCF1E-76BF-4331-A619-601C2A286595}"/>
   </bookViews>
   <sheets>
     <sheet name="gross_sales" sheetId="1" r:id="rId1"/>
     <sheet name="unique_orders" sheetId="2" r:id="rId2"/>
     <sheet name="scenario_analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="common_product" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>product_type</t>
   </si>
@@ -104,18 +106,28 @@
   </si>
   <si>
     <t>Cross selling</t>
+  </si>
+  <si>
+    <t>Hojicha Latte (Subscription)</t>
+  </si>
+  <si>
+    <t>Matcha Latte (Subscription)</t>
+  </si>
+  <si>
+    <t>Subscription refill Pack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +147,14 @@
       <b/>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -256,9 +276,16 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,6 +301,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -758,10 +789,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86820140-CF82-4EB6-9E92-8ABD4FAD56C5}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,57 +840,189 @@
       <c r="C4" s="6">
         <v>1208</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="6">
         <f>C3-C4</f>
         <v>479</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f>B4*D4</f>
         <v>36835.100000000006</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="15">
-        <v>59.9</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="C7" s="6">
-        <v>794</v>
-      </c>
+        <v>1208</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B8" s="15">
         <v>49.9</v>
       </c>
       <c r="C8" s="6">
+        <v>794</v>
+      </c>
+      <c r="D8" s="6">
+        <f>C7-C8</f>
+        <v>414</v>
+      </c>
+      <c r="E8" s="22">
+        <f>B8*D8</f>
+        <v>20658.599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15">
+        <v>59.9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="15">
+        <v>49.9</v>
+      </c>
+      <c r="C12" s="6">
         <v>663</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D12" s="6">
         <v>131</v>
       </c>
-      <c r="E8" s="19">
-        <f>B8*D8</f>
+      <c r="E12" s="18">
+        <f>B12*D12</f>
         <v>6536.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="24">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="C15" s="26">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="24">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C16" s="26">
+        <v>357</v>
+      </c>
+      <c r="D16" s="6">
+        <f>C15-C16</f>
+        <v>851</v>
+      </c>
+      <c r="E16" s="24">
+        <f>B16*D16</f>
+        <v>16934.899999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABAE099-AD76-48CD-910C-DDF016BDE37E}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
